--- a/Python Developer Test Dataset.xlsx
+++ b/Python Developer Test Dataset.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Github\BiNK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ACDA39B-5E63-4D8D-A8F6-B8B510E6A575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D350017-7BD4-43AF-A80F-DFC13222C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6050" yWindow="830" windowWidth="24350" windowHeight="16800"/>
+    <workbookView xWindow="13700" yWindow="350" windowWidth="24350" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Developer Test Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Python Developer Test Dataset'!$A$1:$K$45</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -466,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,9 +947,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1301,12 +1305,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="49.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.54296875" customWidth="1"/>
+    <col min="8" max="8" width="34.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1359,7 +1371,7 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>34394</v>
       </c>
       <c r="I2" s="1">
@@ -1388,7 +1400,7 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>36335</v>
       </c>
       <c r="I3" s="1">
@@ -1420,7 +1432,7 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>38016</v>
       </c>
       <c r="I4" s="1">
@@ -1455,7 +1467,7 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>38299</v>
       </c>
       <c r="I5" s="1">
@@ -1484,7 +1496,7 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>39289</v>
       </c>
       <c r="I6" s="1">
@@ -1516,7 +1528,7 @@
       <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>39315</v>
       </c>
       <c r="I7" s="1">
@@ -1545,7 +1557,7 @@
       <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>39475</v>
       </c>
       <c r="I8" s="1">
@@ -1577,7 +1589,7 @@
       <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>39511</v>
       </c>
       <c r="I9" s="1">
@@ -1606,7 +1618,7 @@
       <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>39539</v>
       </c>
       <c r="I10" s="1">
@@ -1638,7 +1650,7 @@
       <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>39567</v>
       </c>
       <c r="I11" s="1">
@@ -1667,7 +1679,7 @@
       <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>39588</v>
       </c>
       <c r="I12" s="1">
@@ -1696,7 +1708,7 @@
       <c r="G13" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>39616</v>
       </c>
       <c r="I13" s="1">
@@ -1722,7 +1734,7 @@
       <c r="G14" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>39974</v>
       </c>
       <c r="I14" s="1">
@@ -1757,7 +1769,7 @@
       <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>40026</v>
       </c>
       <c r="I15" s="1">
@@ -1772,21 +1784,24 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>40026</v>
       </c>
       <c r="I16" s="1">
@@ -1796,29 +1811,26 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>15296.63</v>
+        <v>14730.08</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="1">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2">
         <v>40026</v>
       </c>
       <c r="I17" s="1">
@@ -1833,21 +1845,24 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="1">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2">
         <v>40026</v>
       </c>
       <c r="I18" s="1">
@@ -1862,24 +1877,24 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="1">
+        <v>88</v>
+      </c>
+      <c r="H19" s="2">
         <v>40026</v>
       </c>
       <c r="I19" s="1">
@@ -1894,21 +1909,21 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>40026</v>
       </c>
       <c r="I20" s="1">
@@ -1918,29 +1933,29 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>28327.09</v>
+        <v>14730.08</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="1">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2">
         <v>40026</v>
       </c>
       <c r="I21" s="1">
@@ -1955,21 +1970,24 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2">
         <v>40026</v>
       </c>
       <c r="I22" s="1">
@@ -1984,24 +2002,21 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>40026</v>
       </c>
       <c r="I23" s="1">
@@ -2011,29 +2026,29 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>14730.08</v>
+        <v>15296.63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
+        <v>105</v>
+      </c>
+      <c r="H24" s="2">
         <v>40026</v>
       </c>
       <c r="I24" s="1">
@@ -2043,29 +2058,26 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>14730.08</v>
+        <v>15296.63</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="1">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2">
         <v>40026</v>
       </c>
       <c r="I25" s="1">
@@ -2075,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="K25">
-        <v>15296.63</v>
+        <v>28327.09</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -2091,7 +2103,7 @@
       <c r="G26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>40028</v>
       </c>
       <c r="I26" s="1">
@@ -2123,7 +2135,7 @@
       <c r="G27" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>40364</v>
       </c>
       <c r="I27" s="1">
@@ -2155,7 +2167,7 @@
       <c r="G28" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>42094</v>
       </c>
       <c r="I28" s="1">
@@ -2187,7 +2199,7 @@
       <c r="G29" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>42094</v>
       </c>
       <c r="I29" s="1">
@@ -2216,7 +2228,7 @@
       <c r="G30" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>42094</v>
       </c>
       <c r="I30" s="1">
@@ -2245,7 +2257,7 @@
       <c r="G31" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>42094</v>
       </c>
       <c r="I31" s="1">
@@ -2277,7 +2289,7 @@
       <c r="G32" t="s">
         <v>114</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>42094</v>
       </c>
       <c r="I32" s="1">
@@ -2303,7 +2315,7 @@
       <c r="G33" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>42094</v>
       </c>
       <c r="I33" s="1">
@@ -2335,7 +2347,7 @@
       <c r="G34" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>42094</v>
       </c>
       <c r="I34" s="1">
@@ -2350,18 +2362,21 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>42094</v>
       </c>
       <c r="I35" s="1">
@@ -2371,26 +2386,29 @@
         <v>15</v>
       </c>
       <c r="K35">
-        <v>17000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>42094</v>
       </c>
       <c r="I36" s="1">
@@ -2405,24 +2423,21 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>42094</v>
       </c>
       <c r="I37" s="1">
@@ -2437,27 +2452,21 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
       <c r="I38" s="1">
@@ -2467,26 +2476,29 @@
         <v>15</v>
       </c>
       <c r="K38">
-        <v>17000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>42094</v>
       </c>
       <c r="I39" s="1">
@@ -2501,21 +2513,24 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G40" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="2">
         <v>42094</v>
       </c>
       <c r="I40" s="1">
@@ -2530,24 +2545,18 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="2">
         <v>42094</v>
       </c>
       <c r="I41" s="1">
@@ -2557,29 +2566,32 @@
         <v>15</v>
       </c>
       <c r="K41">
-        <v>15000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>42094</v>
       </c>
       <c r="I42" s="1">
@@ -2589,15 +2601,15 @@
         <v>15</v>
       </c>
       <c r="K42">
-        <v>22500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -2606,12 +2618,12 @@
         <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="2">
         <v>42094</v>
       </c>
       <c r="I43" s="1">
@@ -2621,10 +2633,13 @@
         <v>15</v>
       </c>
       <c r="K43">
-        <v>15000</v>
+        <v>22500</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K45">
+    <sortCondition ref="H2:H45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>